--- a/Code/Results/Cases/Case_3_94/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_94/res_line/pl_mw.xlsx
@@ -421,37 +421,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.418123494143856</v>
+        <v>1.511635313529041</v>
       </c>
       <c r="C2">
-        <v>0.4825906101439728</v>
+        <v>0.3057533169054523</v>
       </c>
       <c r="D2">
-        <v>0.1158409923292822</v>
+        <v>0.2237948784957311</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.4943227999826192</v>
+        <v>1.160858324775496</v>
       </c>
       <c r="G2">
-        <v>0.2751952778844711</v>
+        <v>0.5844827284537999</v>
       </c>
       <c r="H2">
-        <v>0.2518882922759786</v>
+        <v>0.7215210258933169</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.06132918520926012</v>
+        <v>0.1979572306752662</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.3759842810156044</v>
+        <v>0.3800416990446536</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -460,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>1.059689222088423</v>
+        <v>2.591176006116086</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,37 +468,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.974987539661583</v>
+        <v>1.37173675491232</v>
       </c>
       <c r="C3">
-        <v>0.4433753870173689</v>
+        <v>0.2928790283801561</v>
       </c>
       <c r="D3">
-        <v>0.1085855273216083</v>
+        <v>0.2228563371044814</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.4867923607505418</v>
+        <v>1.171074980692978</v>
       </c>
       <c r="G3">
-        <v>0.2694028837003231</v>
+        <v>0.5909563955190933</v>
       </c>
       <c r="H3">
-        <v>0.2561960263553189</v>
+        <v>0.7291739916712459</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.06519984146366742</v>
+        <v>0.2005902604390526</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.3341954221612298</v>
+        <v>0.3690196140506288</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -507,7 +507,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>1.056015741821497</v>
+        <v>2.620626958114826</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,37 +515,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.703048444280341</v>
+        <v>1.285719270385414</v>
       </c>
       <c r="C4">
-        <v>0.4194048248709805</v>
+        <v>0.2849978495569019</v>
       </c>
       <c r="D4">
-        <v>0.104226864114132</v>
+        <v>0.2223529202767267</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.4835362969747905</v>
+        <v>1.178106582284876</v>
       </c>
       <c r="G4">
-        <v>0.2668996833922392</v>
+        <v>0.5954368468716922</v>
       </c>
       <c r="H4">
-        <v>0.2594901561964065</v>
+        <v>0.7342630972591238</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.06772304948322372</v>
+        <v>0.2023017393702178</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.3086954630209675</v>
+        <v>0.3623503234905598</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>1.057342011590805</v>
+        <v>2.64058839764246</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,37 +562,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.592236878384938</v>
+        <v>1.250638978073539</v>
       </c>
       <c r="C5">
-        <v>0.4096608292121573</v>
+        <v>0.2817924790285815</v>
       </c>
       <c r="D5">
-        <v>0.1024738460319981</v>
+        <v>0.2221661614860651</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.4825380383665276</v>
+        <v>1.181162684761148</v>
       </c>
       <c r="G5">
-        <v>0.2661308055694533</v>
+        <v>0.5973895945460299</v>
       </c>
       <c r="H5">
-        <v>0.260989685931392</v>
+        <v>0.7364350552333008</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.06878726246083477</v>
+        <v>0.2030230243065096</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.2983397620906771</v>
+        <v>0.3596574962721917</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -601,7 +601,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>1.058741382216695</v>
+        <v>2.64919474363117</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,37 +609,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.573836176323425</v>
+        <v>1.24481233734258</v>
       </c>
       <c r="C6">
-        <v>0.4080442276938925</v>
+        <v>0.2812606180315811</v>
       </c>
       <c r="D6">
-        <v>0.102184129352942</v>
+        <v>0.2221362629196832</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.4823916916296795</v>
+        <v>1.181681661995611</v>
       </c>
       <c r="G6">
-        <v>0.2660179175567379</v>
+        <v>0.5977215067837633</v>
       </c>
       <c r="H6">
-        <v>0.2612480000377744</v>
+        <v>0.7368016325330657</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.06896612257827517</v>
+        <v>0.2031442334424343</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.2966222482015723</v>
+        <v>0.3592118691726967</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>1.059024437294667</v>
+        <v>2.650652309002339</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,37 +656,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.701554017171361</v>
+        <v>1.285246273180121</v>
       </c>
       <c r="C7">
-        <v>0.4192733196012171</v>
+        <v>0.2849545949821106</v>
       </c>
       <c r="D7">
-        <v>0.1042031297889849</v>
+        <v>0.2223503270401181</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.4835215232716763</v>
+        <v>1.17814702604165</v>
       </c>
       <c r="G7">
-        <v>0.2668883145706715</v>
+        <v>0.5954626686625559</v>
       </c>
       <c r="H7">
-        <v>0.2595097509495758</v>
+        <v>0.7342919918183597</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.06773725726508317</v>
+        <v>0.2023113703191672</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.3085556629971506</v>
+        <v>0.3623139056862783</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>1.057357460118226</v>
+        <v>2.640702555742195</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,37 +703,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.265279746766112</v>
+        <v>1.463424485558221</v>
       </c>
       <c r="C8">
-        <v>0.469045019715054</v>
+        <v>0.3013095314346117</v>
       </c>
       <c r="D8">
-        <v>0.1133187029923022</v>
+        <v>0.2234561895274254</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.4914330219353431</v>
+        <v>1.164223550652274</v>
       </c>
       <c r="G8">
-        <v>0.2729710065321242</v>
+        <v>0.5866097877977694</v>
       </c>
       <c r="H8">
-        <v>0.2532351104630166</v>
+        <v>0.7240787917132749</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.06263281756813743</v>
+        <v>0.1988454312525434</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.361539995372226</v>
+        <v>0.3762210192579261</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>1.057653459881507</v>
+        <v>2.60094055489914</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,37 +750,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>4.373499936810504</v>
+        <v>1.811793079356107</v>
       </c>
       <c r="C9">
-        <v>0.5676485042092452</v>
+        <v>0.3335572675707681</v>
       </c>
       <c r="D9">
-        <v>0.1320075024954832</v>
+        <v>0.2262000979472418</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.5185255889310554</v>
+        <v>1.142941980095166</v>
       </c>
       <c r="G9">
-        <v>0.2939065844172148</v>
+        <v>0.5732705513715004</v>
       </c>
       <c r="H9">
-        <v>0.2463704138107516</v>
+        <v>0.7071464843319433</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.05382762712979527</v>
+        <v>0.1928003845791233</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.4669041431003365</v>
+        <v>0.4042639368831686</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>1.088636870415201</v>
+        <v>2.53789265988722</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,37 +797,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>5.191830383259571</v>
+        <v>2.067008022919481</v>
       </c>
       <c r="C10">
-        <v>0.6409305443844744</v>
+        <v>0.3573430506120587</v>
       </c>
       <c r="D10">
-        <v>0.1463084220714848</v>
+        <v>0.2285635291721348</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.5465565432841402</v>
+        <v>1.130983576691804</v>
       </c>
       <c r="G10">
-        <v>0.3157339858431385</v>
+        <v>0.5659351905558481</v>
       </c>
       <c r="H10">
-        <v>0.245067741270887</v>
+        <v>0.6965936454446222</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.04815281339647459</v>
+        <v>0.1888165719355266</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.5455163359698503</v>
+        <v>0.4253274838769698</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>1.132849134674274</v>
+        <v>2.500699473837585</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,37 +844,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>5.565598440843701</v>
+        <v>2.182934074001139</v>
       </c>
       <c r="C11">
-        <v>0.6745060721251548</v>
+        <v>0.3681813882657252</v>
       </c>
       <c r="D11">
-        <v>0.1529558238344748</v>
+        <v>0.2297135085234743</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.5613258872646156</v>
+        <v>1.126343138008579</v>
       </c>
       <c r="G11">
-        <v>0.3272899168189554</v>
+        <v>0.5631362984456274</v>
       </c>
       <c r="H11">
-        <v>0.2453881315229438</v>
+        <v>0.6922027297454036</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.04575781547449065</v>
+        <v>0.1871034095587385</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.581614440611105</v>
+        <v>0.4350079246388532</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>1.158310924340583</v>
+        <v>2.485767726131144</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,37 +891,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>5.707403175829029</v>
+        <v>2.226805318995616</v>
       </c>
       <c r="C12">
-        <v>0.6872595365593952</v>
+        <v>0.3722879081167321</v>
       </c>
       <c r="D12">
-        <v>0.1554949694331498</v>
+        <v>0.2301596751013335</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>0.5672314281575481</v>
+        <v>1.124700988383601</v>
       </c>
       <c r="G12">
-        <v>0.3319200169327843</v>
+        <v>0.5621540255735198</v>
       </c>
       <c r="H12">
-        <v>0.2456497874668315</v>
+        <v>0.6905989163730908</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.04487898503665111</v>
+        <v>0.1864689209466119</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.5953388677389739</v>
+        <v>0.4386876162703288</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>1.168783827843271</v>
+        <v>2.480399793877268</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,37 +938,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>5.676850273393143</v>
+        <v>2.217358123209181</v>
       </c>
       <c r="C13">
-        <v>0.6845110292533718</v>
+        <v>0.3714033994131398</v>
       </c>
       <c r="D13">
-        <v>0.1549471188007487</v>
+        <v>0.230063110590919</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>0.5659452808682133</v>
+        <v>1.125049534463081</v>
       </c>
       <c r="G13">
-        <v>0.3309112027733647</v>
+        <v>0.5623621201779656</v>
       </c>
       <c r="H13">
-        <v>0.2455870430697331</v>
+        <v>0.6909417048627517</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.04506698564084566</v>
+        <v>0.1866049357141852</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.592380519959633</v>
+        <v>0.4378945137535197</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>1.166490307298631</v>
+        <v>2.481543127394247</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,37 +985,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>5.577259149908059</v>
+        <v>2.186543952539068</v>
       </c>
       <c r="C14">
-        <v>0.675554494302304</v>
+        <v>0.3685191903245766</v>
       </c>
       <c r="D14">
-        <v>0.1531642724960847</v>
+        <v>0.2297500009740929</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>0.5618053378578765</v>
+        <v>1.126205730257006</v>
       </c>
       <c r="G14">
-        <v>0.3276656241148856</v>
+        <v>0.5630539295237753</v>
       </c>
       <c r="H14">
-        <v>0.2454067915945757</v>
+        <v>0.6920696018288339</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.04568494267689349</v>
+        <v>0.1870509242355824</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.5827424197003239</v>
+        <v>0.4353103775541456</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>1.159155510785098</v>
+        <v>2.485320359998667</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,37 +1032,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>5.516293031841258</v>
+        <v>2.167665732830415</v>
       </c>
       <c r="C15">
-        <v>0.6700736028363394</v>
+        <v>0.3667528159933795</v>
       </c>
       <c r="D15">
-        <v>0.1520751290772324</v>
+        <v>0.2295596030012206</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.5593109226834514</v>
+        <v>1.126928924309674</v>
       </c>
       <c r="G15">
-        <v>0.3257113316991394</v>
+        <v>0.5634877966030274</v>
       </c>
       <c r="H15">
-        <v>0.2453149368872261</v>
+        <v>0.6927681466770679</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.0460671586348651</v>
+        <v>0.1873259606752704</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.5768461471690927</v>
+        <v>0.4337293247784118</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>1.154772875716901</v>
+        <v>2.487671338432875</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,37 +1079,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>5.167438272814081</v>
+        <v>2.05942828639229</v>
       </c>
       <c r="C16">
-        <v>0.6387415145587738</v>
+        <v>0.3566350757371026</v>
       </c>
       <c r="D16">
-        <v>0.1458769807357925</v>
+        <v>0.2284898755310394</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.5456338293528304</v>
+        <v>1.131302938261776</v>
       </c>
       <c r="G16">
-        <v>0.3150132059854087</v>
+        <v>0.5661289514994081</v>
       </c>
       <c r="H16">
-        <v>0.245065933549995</v>
+        <v>0.6968888471618868</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.04831319297066639</v>
+        <v>0.1889305250796998</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.5431645575222745</v>
+        <v>0.4246968055900453</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>1.131297979827451</v>
+        <v>2.501715344273407</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,37 +1126,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>4.95384737178756</v>
+        <v>1.992982058609527</v>
       </c>
       <c r="C17">
-        <v>0.6195848082096802</v>
+        <v>0.3504325670673722</v>
       </c>
       <c r="D17">
-        <v>0.1421119975440917</v>
+        <v>0.2278527529793024</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.5377757719145677</v>
+        <v>1.134191108683616</v>
       </c>
       <c r="G17">
-        <v>0.3088808048033798</v>
+        <v>0.5678871828113685</v>
       </c>
       <c r="H17">
-        <v>0.2451532556460023</v>
+        <v>0.699521697679117</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.04973971823150158</v>
+        <v>0.1899402531180119</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.5225927142681712</v>
+        <v>0.4191807050815726</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>1.118309674096849</v>
+        <v>2.510840377596566</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,37 +1173,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>4.831133982700521</v>
+        <v>1.954747864378874</v>
       </c>
       <c r="C18">
-        <v>0.6085885815010386</v>
+        <v>0.3468667675080894</v>
       </c>
       <c r="D18">
-        <v>0.1399597325322475</v>
+        <v>0.2274933455312151</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.533444524554362</v>
+        <v>1.135927553675494</v>
       </c>
       <c r="G18">
-        <v>0.3055054164772812</v>
+        <v>0.5689490956876639</v>
       </c>
       <c r="H18">
-        <v>0.2452888378323408</v>
+        <v>0.7010745977291606</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.0505776907581863</v>
+        <v>0.190530349213808</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.5107916459051012</v>
+        <v>0.416017278671049</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>1.111338709369136</v>
+        <v>2.516275905190881</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,37 +1220,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>4.789607645006754</v>
+        <v>1.941799741610055</v>
       </c>
       <c r="C19">
-        <v>0.604869123104578</v>
+        <v>0.3456597542017903</v>
       </c>
       <c r="D19">
-        <v>0.1392332442029556</v>
+        <v>0.2273728690197458</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.5320097516241944</v>
+        <v>1.136528404058971</v>
       </c>
       <c r="G19">
-        <v>0.3043880471258262</v>
+        <v>0.5693173285517119</v>
       </c>
       <c r="H19">
-        <v>0.2453491382498996</v>
+        <v>0.7016070038553153</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.05086437705564339</v>
+        <v>0.1907317476001849</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.5068011976179037</v>
+        <v>0.4149477998065407</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>1.109062445953924</v>
+        <v>2.518148389697316</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,37 +1267,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>4.976569806548184</v>
+        <v>2.00005705646646</v>
       </c>
       <c r="C20">
-        <v>0.6216217410666616</v>
+        <v>0.3510926590940642</v>
       </c>
       <c r="D20">
-        <v>0.1425114040204107</v>
+        <v>0.2279198467527266</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>0.5385926081868249</v>
+        <v>1.133875869506056</v>
       </c>
       <c r="G20">
-        <v>0.3095177558816999</v>
+        <v>0.5676947748499472</v>
       </c>
       <c r="H20">
-        <v>0.2451350624214115</v>
+        <v>0.6992374358427185</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.04958604476128858</v>
+        <v>0.1898318005164858</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.5247793366440305</v>
+        <v>0.4197669438622427</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>1.119640163929546</v>
+        <v>2.509849639057393</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,37 +1314,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>5.606503812112862</v>
+        <v>2.195595586818456</v>
       </c>
       <c r="C21">
-        <v>0.6781841436912259</v>
+        <v>0.3693662932022335</v>
       </c>
       <c r="D21">
-        <v>0.1536873301550088</v>
+        <v>0.2298416791577154</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>0.5630126652720762</v>
+        <v>1.125863003262339</v>
       </c>
       <c r="G21">
-        <v>0.3286118642898685</v>
+        <v>0.562848620194913</v>
       </c>
       <c r="H21">
-        <v>0.2454558520308865</v>
+        <v>0.6917367115560324</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.04550266034641037</v>
+        <v>0.1869195398934274</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.5855718211770409</v>
+        <v>0.4360690252246258</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>1.161286848825597</v>
+        <v>2.48420311790764</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,37 +1361,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>6.019784036348028</v>
+        <v>2.323230205707205</v>
       </c>
       <c r="C22">
-        <v>0.7153815702121449</v>
+        <v>0.381322292909573</v>
       </c>
       <c r="D22">
-        <v>0.1611199859509469</v>
+        <v>0.2311600112330581</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>0.5808069012459427</v>
+        <v>1.12129698137803</v>
       </c>
       <c r="G22">
-        <v>0.3425825970604848</v>
+        <v>0.5601338413679571</v>
       </c>
       <c r="H22">
-        <v>0.2464881283450211</v>
+        <v>0.6871780629456339</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.04299839792737181</v>
+        <v>0.1850992618383627</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.6256263009538259</v>
+        <v>0.4468043924625249</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>1.193381390030964</v>
+        <v>2.469111237569365</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,37 +1408,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>5.799046136323398</v>
+        <v>2.255124812316751</v>
       </c>
       <c r="C23">
-        <v>0.6955058304519355</v>
+        <v>0.3749400551896827</v>
       </c>
       <c r="D23">
-        <v>0.1571407456691958</v>
+        <v>0.2304507142096952</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>0.5711340847770501</v>
+        <v>1.123672532274981</v>
       </c>
       <c r="G23">
-        <v>0.3349826125291173</v>
+        <v>0.5615412896915899</v>
       </c>
       <c r="H23">
-        <v>0.2458587559336962</v>
+        <v>0.6895796593637016</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.04431947465155339</v>
+        <v>0.1860631794098273</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.6042166692839714</v>
+        <v>0.4410673941246586</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>1.175784193811779</v>
+        <v>2.477013099057217</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,37 +1455,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>4.966296739448808</v>
+        <v>1.996858553689265</v>
       </c>
       <c r="C24">
-        <v>0.620700790443351</v>
+        <v>0.3507942311369732</v>
       </c>
       <c r="D24">
-        <v>0.142330794235491</v>
+        <v>0.2278894922146293</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>0.5382227374297699</v>
+        <v>1.134018152420275</v>
       </c>
       <c r="G24">
-        <v>0.3092293239388653</v>
+        <v>0.5677816033898537</v>
       </c>
       <c r="H24">
-        <v>0.2451430223165403</v>
+        <v>0.6993658283925299</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.04965546505271057</v>
+        <v>0.1898808020653462</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.5237906842911002</v>
+        <v>0.4195018808303104</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>1.119037108595052</v>
+        <v>2.51029696194783</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,37 +1502,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>4.073161082353749</v>
+        <v>1.717671570986965</v>
       </c>
       <c r="C25">
-        <v>0.5408440469354332</v>
+        <v>0.3248160237861271</v>
       </c>
       <c r="D25">
-        <v>0.1268572139966722</v>
+        <v>0.2253965428951048</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>0.509850523020944</v>
+        <v>1.148053872798378</v>
       </c>
       <c r="G25">
-        <v>0.2871836426478538</v>
+        <v>0.5764472628299941</v>
       </c>
       <c r="H25">
-        <v>0.2476028983954421</v>
+        <v>0.7113956926338361</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.05607472294661164</v>
+        <v>0.1943553378215883</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.4382131321092686</v>
+        <v>0.3965960373452333</v>
       </c>
       <c r="M25">
         <v>0</v>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>1.076710261434755</v>
+        <v>2.553347893685881</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_94/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_94/res_line/pl_mw.xlsx
@@ -421,37 +421,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.511635313529041</v>
+        <v>3.418123494143913</v>
       </c>
       <c r="C2">
-        <v>0.3057533169054523</v>
+        <v>0.4825906101438875</v>
       </c>
       <c r="D2">
-        <v>0.2237948784957311</v>
+        <v>0.1158409923291757</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>1.160858324775496</v>
+        <v>0.4943227999826121</v>
       </c>
       <c r="G2">
-        <v>0.5844827284537999</v>
+        <v>0.2751952778844</v>
       </c>
       <c r="H2">
-        <v>0.7215210258933169</v>
+        <v>0.2518882922760923</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.1979572306752662</v>
+        <v>0.0613291852092166</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.3800416990446536</v>
+        <v>0.3759842810155618</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -460,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>2.591176006116086</v>
+        <v>1.059689222088352</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,37 +468,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.37173675491232</v>
+        <v>2.974987539661697</v>
       </c>
       <c r="C3">
-        <v>0.2928790283801561</v>
+        <v>0.4433753870175394</v>
       </c>
       <c r="D3">
-        <v>0.2228563371044814</v>
+        <v>0.1085855273216936</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>1.171074980692978</v>
+        <v>0.4867923607505489</v>
       </c>
       <c r="G3">
-        <v>0.5909563955190933</v>
+        <v>0.2694028837003941</v>
       </c>
       <c r="H3">
-        <v>0.7291739916712459</v>
+        <v>0.2561960263552052</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.2005902604390526</v>
+        <v>0.06519984146366653</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.3690196140506288</v>
+        <v>0.334195422161244</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -507,7 +507,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>2.620626958114826</v>
+        <v>1.056015741821469</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,37 +515,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.285719270385414</v>
+        <v>2.703048444280455</v>
       </c>
       <c r="C4">
-        <v>0.2849978495569019</v>
+        <v>0.4194048248707531</v>
       </c>
       <c r="D4">
-        <v>0.2223529202767267</v>
+        <v>0.1042268641141462</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>1.178106582284876</v>
+        <v>0.4835362969748118</v>
       </c>
       <c r="G4">
-        <v>0.5954368468716922</v>
+        <v>0.2668996833922535</v>
       </c>
       <c r="H4">
-        <v>0.7342630972591238</v>
+        <v>0.2594901561964136</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.2023017393702178</v>
+        <v>0.0677230494833001</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.3623503234905598</v>
+        <v>0.3086954630210244</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>2.64058839764246</v>
+        <v>1.05734201159089</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,37 +562,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.250638978073539</v>
+        <v>2.592236878385108</v>
       </c>
       <c r="C5">
-        <v>0.2817924790285815</v>
+        <v>0.4096608292119015</v>
       </c>
       <c r="D5">
-        <v>0.2221661614860651</v>
+        <v>0.1024738460320052</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>1.181162684761148</v>
+        <v>0.4825380383665134</v>
       </c>
       <c r="G5">
-        <v>0.5973895945460299</v>
+        <v>0.2661308055693752</v>
       </c>
       <c r="H5">
-        <v>0.7364350552333008</v>
+        <v>0.2609896859313778</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.2030230243065096</v>
+        <v>0.06878726246073263</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.3596574962721917</v>
+        <v>0.2983397620907056</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -601,7 +601,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>2.64919474363117</v>
+        <v>1.058741382216652</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,37 +609,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.24481233734258</v>
+        <v>2.573836176323425</v>
       </c>
       <c r="C6">
-        <v>0.2812606180315811</v>
+        <v>0.4080442276941199</v>
       </c>
       <c r="D6">
-        <v>0.2221362629196832</v>
+        <v>0.1021841293529064</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>1.181681661995611</v>
+        <v>0.4823916916296938</v>
       </c>
       <c r="G6">
-        <v>0.5977215067837633</v>
+        <v>0.2660179175567308</v>
       </c>
       <c r="H6">
-        <v>0.7368016325330657</v>
+        <v>0.2612480000377673</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2031442334424343</v>
+        <v>0.06896612257832668</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.3592118691726967</v>
+        <v>0.2966222482015297</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>2.650652309002339</v>
+        <v>1.059024437294596</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,37 +656,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.285246273180121</v>
+        <v>2.70155401717119</v>
       </c>
       <c r="C7">
-        <v>0.2849545949821106</v>
+        <v>0.4192733196010181</v>
       </c>
       <c r="D7">
-        <v>0.2223503270401181</v>
+        <v>0.1042031297889068</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>1.17814702604165</v>
+        <v>0.4835215232716905</v>
       </c>
       <c r="G7">
-        <v>0.5954626686625559</v>
+        <v>0.2668883145706076</v>
       </c>
       <c r="H7">
-        <v>0.7342919918183597</v>
+        <v>0.2595097509495758</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.2023113703191672</v>
+        <v>0.06773725726507696</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.3623139056862783</v>
+        <v>0.3085556629971222</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>2.640702555742195</v>
+        <v>1.057357460118197</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,37 +703,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.463424485558221</v>
+        <v>3.265279746766055</v>
       </c>
       <c r="C8">
-        <v>0.3013095314346117</v>
+        <v>0.4690450197147698</v>
       </c>
       <c r="D8">
-        <v>0.2234561895274254</v>
+        <v>0.1133187029920677</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>1.164223550652274</v>
+        <v>0.4914330219353289</v>
       </c>
       <c r="G8">
-        <v>0.5866097877977694</v>
+        <v>0.2729710065320532</v>
       </c>
       <c r="H8">
-        <v>0.7240787917132749</v>
+        <v>0.2532351104629029</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1988454312525434</v>
+        <v>0.06263281756814987</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.3762210192579261</v>
+        <v>0.3615399953721408</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>2.60094055489914</v>
+        <v>1.057653459881507</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,37 +750,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.811793079356107</v>
+        <v>4.373499936810504</v>
       </c>
       <c r="C9">
-        <v>0.3335572675707681</v>
+        <v>0.5676485042090462</v>
       </c>
       <c r="D9">
-        <v>0.2262000979472418</v>
+        <v>0.1320075024952274</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>1.142941980095166</v>
+        <v>0.5185255889310341</v>
       </c>
       <c r="G9">
-        <v>0.5732705513715004</v>
+        <v>0.2939065844171438</v>
       </c>
       <c r="H9">
-        <v>0.7071464843319433</v>
+        <v>0.2463704138107516</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1928003845791233</v>
+        <v>0.05382762712974998</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.4042639368831686</v>
+        <v>0.4669041431003933</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>2.53789265988722</v>
+        <v>1.088636870415172</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,37 +797,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>2.067008022919481</v>
+        <v>5.191830383259685</v>
       </c>
       <c r="C10">
-        <v>0.3573430506120587</v>
+        <v>0.640930544384446</v>
       </c>
       <c r="D10">
-        <v>0.2285635291721348</v>
+        <v>0.1463084220713711</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>1.130983576691804</v>
+        <v>0.5465565432841544</v>
       </c>
       <c r="G10">
-        <v>0.5659351905558481</v>
+        <v>0.3157339858430959</v>
       </c>
       <c r="H10">
-        <v>0.6965936454446222</v>
+        <v>0.245067741270887</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1888165719355266</v>
+        <v>0.0481528133964515</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.4253274838769698</v>
+        <v>0.5455163359697508</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>2.500699473837585</v>
+        <v>1.132849134674302</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,37 +844,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>2.182934074001139</v>
+        <v>5.565598440843473</v>
       </c>
       <c r="C11">
-        <v>0.3681813882657252</v>
+        <v>0.6745060721251548</v>
       </c>
       <c r="D11">
-        <v>0.2297135085234743</v>
+        <v>0.152955823834489</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>1.126343138008579</v>
+        <v>0.5613258872646156</v>
       </c>
       <c r="G11">
-        <v>0.5631362984456274</v>
+        <v>0.3272899168189412</v>
       </c>
       <c r="H11">
-        <v>0.6922027297454036</v>
+        <v>0.2453881315229438</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.1871034095587385</v>
+        <v>0.04575781547441782</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.4350079246388532</v>
+        <v>0.5816144406110482</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>2.485767726131144</v>
+        <v>1.158310924340583</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,37 +891,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>2.226805318995616</v>
+        <v>5.707403175828915</v>
       </c>
       <c r="C12">
-        <v>0.3722879081167321</v>
+        <v>0.6872595365591678</v>
       </c>
       <c r="D12">
-        <v>0.2301596751013335</v>
+        <v>0.1554949694333772</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>1.124700988383601</v>
+        <v>0.567231428157541</v>
       </c>
       <c r="G12">
-        <v>0.5621540255735198</v>
+        <v>0.3319200169327274</v>
       </c>
       <c r="H12">
-        <v>0.6905989163730908</v>
+        <v>0.2456497874668173</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.1864689209466119</v>
+        <v>0.04487898503657828</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.4386876162703288</v>
+        <v>0.5953388677390024</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>2.480399793877268</v>
+        <v>1.168783827843299</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,37 +938,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>2.217358123209181</v>
+        <v>5.676850273393143</v>
       </c>
       <c r="C13">
-        <v>0.3714033994131398</v>
+        <v>0.6845110292534002</v>
       </c>
       <c r="D13">
-        <v>0.230063110590919</v>
+        <v>0.1549471188010472</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>1.125049534463081</v>
+        <v>0.5659452808682204</v>
       </c>
       <c r="G13">
-        <v>0.5623621201779656</v>
+        <v>0.3309112027734358</v>
       </c>
       <c r="H13">
-        <v>0.6909417048627517</v>
+        <v>0.2455870430697331</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.1866049357141852</v>
+        <v>0.04506698564089096</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.4378945137535197</v>
+        <v>0.5923805199595762</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>2.481543127394247</v>
+        <v>1.166490307298687</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,37 +985,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>2.186543952539068</v>
+        <v>5.577259149908116</v>
       </c>
       <c r="C14">
-        <v>0.3685191903245766</v>
+        <v>0.6755544943025598</v>
       </c>
       <c r="D14">
-        <v>0.2297500009740929</v>
+        <v>0.1531642724960847</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>1.126205730257006</v>
+        <v>0.5618053378578765</v>
       </c>
       <c r="G14">
-        <v>0.5630539295237753</v>
+        <v>0.3276656241148714</v>
       </c>
       <c r="H14">
-        <v>0.6920696018288339</v>
+        <v>0.2454067915945757</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.1870509242355824</v>
+        <v>0.04568494267678869</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.4353103775541456</v>
+        <v>0.5827424197002671</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>2.485320359998667</v>
+        <v>1.159155510785098</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,37 +1032,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>2.167665732830415</v>
+        <v>5.51629303184086</v>
       </c>
       <c r="C15">
-        <v>0.3667528159933795</v>
+        <v>0.6700736028361973</v>
       </c>
       <c r="D15">
-        <v>0.2295596030012206</v>
+        <v>0.1520751290771898</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>1.126928924309674</v>
+        <v>0.5593109226834514</v>
       </c>
       <c r="G15">
-        <v>0.5634877966030274</v>
+        <v>0.3257113316990967</v>
       </c>
       <c r="H15">
-        <v>0.6927681466770679</v>
+        <v>0.2453149368872261</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.1873259606752704</v>
+        <v>0.04606715863486688</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.4337293247784118</v>
+        <v>0.5768461471691637</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>2.487671338432875</v>
+        <v>1.154772875716787</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,37 +1079,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>2.05942828639229</v>
+        <v>5.167438272813968</v>
       </c>
       <c r="C16">
-        <v>0.3566350757371026</v>
+        <v>0.638741514558518</v>
       </c>
       <c r="D16">
-        <v>0.2284898755310394</v>
+        <v>0.145876980735693</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>1.131302938261776</v>
+        <v>0.5456338293528304</v>
       </c>
       <c r="G16">
-        <v>0.5661289514994081</v>
+        <v>0.3150132059854656</v>
       </c>
       <c r="H16">
-        <v>0.6968888471618868</v>
+        <v>0.2450659335498813</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.1889305250796998</v>
+        <v>0.04831319297056869</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.4246968055900453</v>
+        <v>0.5431645575222745</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>2.501715344273407</v>
+        <v>1.131297979827451</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,37 +1126,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.992982058609527</v>
+        <v>4.953847371787788</v>
       </c>
       <c r="C17">
-        <v>0.3504325670673722</v>
+        <v>0.6195848082094244</v>
       </c>
       <c r="D17">
-        <v>0.2278527529793024</v>
+        <v>0.1421119975442195</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>1.134191108683616</v>
+        <v>0.5377757719145606</v>
       </c>
       <c r="G17">
-        <v>0.5678871828113685</v>
+        <v>0.3088808048033087</v>
       </c>
       <c r="H17">
-        <v>0.699521697679117</v>
+        <v>0.2451532556460023</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.1899402531180119</v>
+        <v>0.04973971823148915</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.4191807050815726</v>
+        <v>0.5225927142681002</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>2.510840377596566</v>
+        <v>1.118309674096849</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,37 +1173,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.954747864378874</v>
+        <v>4.831133982700521</v>
       </c>
       <c r="C18">
-        <v>0.3468667675080894</v>
+        <v>0.6085885815009817</v>
       </c>
       <c r="D18">
-        <v>0.2274933455312151</v>
+        <v>0.1399597325320201</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>1.135927553675494</v>
+        <v>0.5334445245543691</v>
       </c>
       <c r="G18">
-        <v>0.5689490956876639</v>
+        <v>0.3055054164773452</v>
       </c>
       <c r="H18">
-        <v>0.7010745977291606</v>
+        <v>0.2452888378323408</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.190530349213808</v>
+        <v>0.05057769075816765</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.416017278671049</v>
+        <v>0.5107916459051012</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>2.516275905190881</v>
+        <v>1.111338709369221</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,37 +1220,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.941799741610055</v>
+        <v>4.789607645006583</v>
       </c>
       <c r="C19">
-        <v>0.3456597542017903</v>
+        <v>0.6048691231043506</v>
       </c>
       <c r="D19">
-        <v>0.2273728690197458</v>
+        <v>0.1392332442030693</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>1.136528404058971</v>
+        <v>0.5320097516242015</v>
       </c>
       <c r="G19">
-        <v>0.5693173285517119</v>
+        <v>0.3043880471258333</v>
       </c>
       <c r="H19">
-        <v>0.7016070038553153</v>
+        <v>0.2453491382498996</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.1907317476001849</v>
+        <v>0.05086437705561941</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.4149477998065407</v>
+        <v>0.5068011976178752</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>2.518148389697316</v>
+        <v>1.109062445953953</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,37 +1267,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>2.00005705646646</v>
+        <v>4.976569806548355</v>
       </c>
       <c r="C20">
-        <v>0.3510926590940642</v>
+        <v>0.6216217410666331</v>
       </c>
       <c r="D20">
-        <v>0.2279198467527266</v>
+        <v>0.1425114040203965</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>1.133875869506056</v>
+        <v>0.5385926081868107</v>
       </c>
       <c r="G20">
-        <v>0.5676947748499472</v>
+        <v>0.3095177558816999</v>
       </c>
       <c r="H20">
-        <v>0.6992374358427185</v>
+        <v>0.2451350624214115</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.1898318005164858</v>
+        <v>0.0495860447612575</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.4197669438622427</v>
+        <v>0.5247793366439595</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>2.509849639057393</v>
+        <v>1.119640163929517</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,37 +1314,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>2.195595586818456</v>
+        <v>5.606503812112976</v>
       </c>
       <c r="C21">
-        <v>0.3693662932022335</v>
+        <v>0.6781841436911407</v>
       </c>
       <c r="D21">
-        <v>0.2298416791577154</v>
+        <v>0.1536873301548383</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>1.125863003262339</v>
+        <v>0.5630126652720762</v>
       </c>
       <c r="G21">
-        <v>0.562848620194913</v>
+        <v>0.3286118642898685</v>
       </c>
       <c r="H21">
-        <v>0.6917367115560324</v>
+        <v>0.2454558520310002</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.1869195398934274</v>
+        <v>0.04550266034641481</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.4360690252246258</v>
+        <v>0.5855718211770977</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>2.48420311790764</v>
+        <v>1.16128684882554</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,37 +1361,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>2.323230205707205</v>
+        <v>6.019784036348028</v>
       </c>
       <c r="C22">
-        <v>0.381322292909573</v>
+        <v>0.7153815702123438</v>
       </c>
       <c r="D22">
-        <v>0.2311600112330581</v>
+        <v>0.1611199859510037</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>1.12129698137803</v>
+        <v>0.5808069012459427</v>
       </c>
       <c r="G22">
-        <v>0.5601338413679571</v>
+        <v>0.3425825970604279</v>
       </c>
       <c r="H22">
-        <v>0.6871780629456339</v>
+        <v>0.2464881283451348</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.1850992618383627</v>
+        <v>0.04299839792743931</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.4468043924625249</v>
+        <v>0.6256263009538259</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>2.469111237569365</v>
+        <v>1.193381390030964</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,37 +1408,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>2.255124812316751</v>
+        <v>5.799046136323398</v>
       </c>
       <c r="C23">
-        <v>0.3749400551896827</v>
+        <v>0.6955058304517934</v>
       </c>
       <c r="D23">
-        <v>0.2304507142096952</v>
+        <v>0.1571407456692242</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>1.123672532274981</v>
+        <v>0.5711340847770501</v>
       </c>
       <c r="G23">
-        <v>0.5615412896915899</v>
+        <v>0.3349826125290605</v>
       </c>
       <c r="H23">
-        <v>0.6895796593637016</v>
+        <v>0.2458587559336962</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.1860631794098273</v>
+        <v>0.04431947465152053</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.4410673941246586</v>
+        <v>0.6042166692839857</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>2.477013099057217</v>
+        <v>1.175784193811779</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,37 +1455,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.996858553689265</v>
+        <v>4.96629673944858</v>
       </c>
       <c r="C24">
-        <v>0.3507942311369732</v>
+        <v>0.620700790443351</v>
       </c>
       <c r="D24">
-        <v>0.2278894922146293</v>
+        <v>0.1423307942356473</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>1.134018152420275</v>
+        <v>0.538222737429777</v>
       </c>
       <c r="G24">
-        <v>0.5677816033898537</v>
+        <v>0.3092293239388511</v>
       </c>
       <c r="H24">
-        <v>0.6993658283925299</v>
+        <v>0.2451430223165403</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.1898808020653462</v>
+        <v>0.04965546505276652</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.4195018808303104</v>
+        <v>0.523790684291086</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>2.51029696194783</v>
+        <v>1.119037108595052</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,37 +1502,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.717671570986965</v>
+        <v>4.073161082354318</v>
       </c>
       <c r="C25">
-        <v>0.3248160237861271</v>
+        <v>0.5408440469354332</v>
       </c>
       <c r="D25">
-        <v>0.2253965428951048</v>
+        <v>0.1268572139966224</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>1.148053872798378</v>
+        <v>0.509850523020944</v>
       </c>
       <c r="G25">
-        <v>0.5764472628299941</v>
+        <v>0.2871836426478751</v>
       </c>
       <c r="H25">
-        <v>0.7113956926338361</v>
+        <v>0.2476028983954635</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.1943553378215883</v>
+        <v>0.05607472294646243</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.3965960373452333</v>
+        <v>0.4382131321092118</v>
       </c>
       <c r="M25">
         <v>0</v>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>2.553347893685881</v>
+        <v>1.076710261434812</v>
       </c>
     </row>
   </sheetData>
